--- a/program_directory/interpreterAccounting/顺丰控股：2017年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/顺丰控股：2017年年度报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主要会计数据" sheetId="1" r:id="rId1"/>
@@ -444,6 +444,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2016</t>
     </r>
     <r>
@@ -477,18 +482,18 @@
     </r>
   </si>
   <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>附注</t>
+  </si>
+  <si>
     <t>2017 年</t>
   </si>
   <si>
     <t>2016 年</t>
   </si>
   <si>
-    <t>资产</t>
-  </si>
-  <si>
-    <t>附注</t>
-  </si>
-  <si>
     <t>12月31日</t>
   </si>
   <si>
@@ -1138,6 +1143,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="MingLiU"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">四 </t>
     </r>
     <r>
@@ -2631,10 +2641,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2690,8 +2700,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2707,69 +2796,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2782,14 +2816,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2797,26 +2823,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2834,13 +2844,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2852,37 +2898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2894,7 +2910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,37 +2922,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2960,7 +2964,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2972,19 +3000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2996,19 +3012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3153,17 +3163,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3173,30 +3177,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3228,6 +3208,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3244,85 +3254,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3331,65 +3341,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -3515,12 +3525,6 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -3563,9 +3567,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3582,12 +3583,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
@@ -3734,9 +3729,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
@@ -3748,9 +3740,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
@@ -3819,9 +3808,6 @@
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -3872,18 +3858,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -3913,9 +3893,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -3943,7 +3920,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -3991,9 +3967,6 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -4426,168 +4399,168 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:5">
-      <c r="A1" s="211"/>
-      <c r="B1" s="212" t="s">
+      <c r="A1" s="198"/>
+      <c r="B1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="212" t="s">
+      <c r="C1" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="226" t="s">
+      <c r="E1" s="213" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="214">
+      <c r="B2" s="201">
         <v>71094296984.46</v>
       </c>
-      <c r="C2" s="214">
+      <c r="C2" s="201">
         <v>57482698073.15</v>
       </c>
-      <c r="D2" s="215">
+      <c r="D2" s="202">
         <v>0.2368</v>
       </c>
-      <c r="E2" s="227">
+      <c r="E2" s="214">
         <v>48101154759.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="217">
+      <c r="B3" s="204">
         <v>4770689703.15</v>
       </c>
-      <c r="C3" s="218">
+      <c r="C3" s="205">
         <v>4180426152</v>
       </c>
-      <c r="D3" s="219">
+      <c r="D3" s="206">
         <v>0.1412</v>
       </c>
-      <c r="E3" s="217">
+      <c r="E3" s="204">
         <v>1101430807.3</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:5">
-      <c r="A4" s="220" t="s">
+    <row r="4" ht="18" spans="1:5">
+      <c r="A4" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="217">
+      <c r="B4" s="204">
         <v>3702637496.23</v>
       </c>
-      <c r="C4" s="218">
+      <c r="C4" s="205">
         <v>2643209426.99</v>
       </c>
-      <c r="D4" s="219">
+      <c r="D4" s="206">
         <v>0.4008</v>
       </c>
-      <c r="E4" s="217">
+      <c r="E4" s="204">
         <v>753509926.89</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="217">
+      <c r="B5" s="204">
         <v>6108333011.73</v>
       </c>
-      <c r="C5" s="218">
+      <c r="C5" s="205">
         <v>5675037785.87</v>
       </c>
-      <c r="D5" s="219">
+      <c r="D5" s="206">
         <v>0.0764</v>
       </c>
-      <c r="E5" s="217">
+      <c r="E5" s="204">
         <v>2782081832.55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="221">
+      <c r="B6" s="208">
         <v>1.12</v>
       </c>
-      <c r="C6" s="221">
+      <c r="C6" s="208">
         <v>1.06</v>
       </c>
-      <c r="D6" s="219">
+      <c r="D6" s="206">
         <v>0.0566</v>
       </c>
-      <c r="E6" s="217">
+      <c r="E6" s="204">
         <v>0.28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="216" t="s">
+      <c r="A7" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="221">
+      <c r="B7" s="208">
         <v>1.12</v>
       </c>
-      <c r="C7" s="221">
+      <c r="C7" s="208">
         <v>1.06</v>
       </c>
-      <c r="D7" s="219">
+      <c r="D7" s="206">
         <v>0.0566</v>
       </c>
-      <c r="E7" s="217">
+      <c r="E7" s="204">
         <v>0.28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="216" t="s">
+      <c r="A8" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="219">
+      <c r="B8" s="206">
         <v>0.1843</v>
       </c>
-      <c r="C8" s="219">
+      <c r="C8" s="206">
         <v>0.2246</v>
       </c>
-      <c r="D8" s="222" t="s">
+      <c r="D8" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="219">
+      <c r="E8" s="206">
         <v>0.0783</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="228" t="s">
+      <c r="E9" s="215" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="223" t="s">
+      <c r="A10" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="224">
+      <c r="B10" s="211">
         <v>57660164354.37</v>
       </c>
-      <c r="C10" s="224">
+      <c r="C10" s="211">
         <v>44134885588.74</v>
       </c>
-      <c r="D10" s="225">
+      <c r="D10" s="212">
         <v>0.3065</v>
       </c>
-      <c r="E10" s="229">
+      <c r="E10" s="216">
         <v>34716573312.3</v>
       </c>
     </row>
@@ -4679,7 +4652,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4710,7 +4683,7 @@
       <c r="A2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="208">
+      <c r="B2" s="195">
         <v>15470945937.16</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4741,10 +4714,10 @@
       </c>
     </row>
     <row r="4" ht="19.5" spans="1:5">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="210">
+      <c r="B4" s="197">
         <v>748027931.17</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -4800,10 +4773,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.75" spans="1:6">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="180" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -4812,47 +4785,47 @@
       <c r="D1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="203" t="s">
+      <c r="E1" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="203" t="s">
+      <c r="F1" s="191" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="194">
+      <c r="B2" s="182">
         <v>970985880.7</v>
       </c>
-      <c r="C2" s="195">
+      <c r="C2" s="183">
         <v>4770689703.15</v>
       </c>
-      <c r="D2" s="196">
+      <c r="D2" s="184">
         <v>0.2035</v>
       </c>
-      <c r="E2" s="204">
+      <c r="E2" s="192">
         <v>0</v>
       </c>
-      <c r="F2" s="205">
+      <c r="F2" s="193">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="198">
+      <c r="B3" s="186">
         <v>418367821.3</v>
       </c>
-      <c r="C3" s="198">
+      <c r="C3" s="186">
         <v>4180426152</v>
       </c>
-      <c r="D3" s="199">
+      <c r="D3" s="187">
         <v>0.1001</v>
       </c>
-      <c r="E3" s="206">
+      <c r="E3" s="185">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -4860,22 +4833,22 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="201">
+      <c r="B4" s="189">
         <v>51368314.8</v>
       </c>
       <c r="C4" s="21">
         <v>25130574.02</v>
       </c>
-      <c r="D4" s="202">
+      <c r="D4" s="190">
         <v>2.0441</v>
       </c>
       <c r="E4" s="21">
         <v>0</v>
       </c>
-      <c r="F4" s="207">
+      <c r="F4" s="194">
         <v>0</v>
       </c>
     </row>
@@ -4890,8 +4863,8 @@
   <sheetPr/>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4904,72 +4877,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="164"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="166" t="s">
+      <c r="A1" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="B1" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="166" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="166" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:6">
-      <c r="A2" s="52" t="s">
+      <c r="C1" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="D1" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="E1" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="157" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="3:6">
+      <c r="C2" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="168" t="s">
+      <c r="E2" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="168" t="s">
+      <c r="F2" s="158" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="34"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="170" t="s">
+      <c r="D3" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="170" t="s">
+      <c r="E3" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="160" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="41">
@@ -4985,11 +4956,11 @@
         <v>60156545.77</v>
       </c>
     </row>
-    <row r="6" ht="66" spans="1:6">
-      <c r="A6" s="173" t="s">
+    <row r="6" ht="33" spans="1:6">
+      <c r="A6" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="41">
@@ -4998,36 +4969,36 @@
       <c r="D6" s="41">
         <v>33803417.04</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="48" t="s">
+      <c r="E6" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="41">
         <v>9173103.94</v>
       </c>
       <c r="D7" s="41">
         <v>4406697.24</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="48" t="s">
+      <c r="E7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="38" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="41">
@@ -5036,18 +5007,18 @@
       <c r="D8" s="41">
         <v>4559911486.72</v>
       </c>
-      <c r="E8" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="41">
@@ -5059,21 +5030,21 @@
       <c r="E9" s="41">
         <v>1391886.8</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="90" t="s">
+      <c r="C10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="85" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="41">
@@ -5084,10 +5055,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="38" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="41">
@@ -5096,38 +5067,38 @@
       <c r="D11" s="41">
         <v>85271730.78</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="48" t="s">
+      <c r="E11" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="73">
         <v>54710605.25</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="73">
         <v>5241461.07</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="73">
         <v>31852751.65</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="38" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="41">
@@ -5144,10 +5115,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="41">
@@ -5156,18 +5127,18 @@
       <c r="D14" s="41">
         <v>396013674.76</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="41">
@@ -5179,43 +5150,43 @@
       <c r="E15" s="41">
         <v>2996914406.42</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="78">
+      <c r="B16" s="49"/>
+      <c r="C16" s="73">
         <v>31489620752.14</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="73">
         <v>21333174761.28</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="73">
         <v>11385107102.12</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="73">
         <v>873335633.38</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="41">
@@ -5224,58 +5195,58 @@
       <c r="D18" s="41">
         <v>696583087.01</v>
       </c>
-      <c r="E18" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="48" t="s">
+      <c r="E18" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="41">
         <v>216066050.8</v>
       </c>
-      <c r="D19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="48" t="s">
+      <c r="D19" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="73">
         <v>604683890.67</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="73">
         <v>769698763.51</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="73">
         <v>43300422777.89</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="73">
         <v>43300000000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="41">
@@ -5284,18 +5255,18 @@
       <c r="D21" s="41">
         <v>2148095293.1</v>
       </c>
-      <c r="E21" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="48" t="s">
+      <c r="E21" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="41">
@@ -5304,18 +5275,18 @@
       <c r="D22" s="41">
         <v>11678342577.66</v>
       </c>
-      <c r="E22" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="48" t="s">
+      <c r="E22" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="41">
@@ -5324,18 +5295,18 @@
       <c r="D23" s="41">
         <v>844498050.62</v>
       </c>
-      <c r="E23" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="48" t="s">
+      <c r="E23" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="41">
@@ -5344,18 +5315,18 @@
       <c r="D24" s="41">
         <v>4476298732.57</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="48" t="s">
+      <c r="E24" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="41">
@@ -5364,18 +5335,18 @@
       <c r="D25" s="41">
         <v>243316365.57</v>
       </c>
-      <c r="E25" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="48" t="s">
+      <c r="E25" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>96</v>
       </c>
       <c r="C26" s="41">
@@ -5384,18 +5355,18 @@
       <c r="D26" s="41">
         <v>58030760.81</v>
       </c>
-      <c r="E26" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="48" t="s">
+      <c r="E26" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="46" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="41">
@@ -5404,18 +5375,18 @@
       <c r="D27" s="41">
         <v>1271129829.62</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="48" t="s">
+      <c r="E27" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="41">
@@ -5424,18 +5395,18 @@
       <c r="D28" s="41">
         <v>417890993.08</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="48" t="s">
+      <c r="E28" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="41">
@@ -5444,640 +5415,640 @@
       <c r="D29" s="41">
         <v>197826373.91</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="48" t="s">
+      <c r="E29" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="78">
+      <c r="B30" s="49"/>
+      <c r="C30" s="73">
         <v>26170543602.23</v>
       </c>
-      <c r="D30" s="78">
+      <c r="D30" s="73">
         <v>22801710827.46</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="73">
         <v>43300422777.89</v>
       </c>
-      <c r="F30" s="78">
+      <c r="F30" s="73">
         <v>43300000000</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:6">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="78">
+      <c r="B31" s="49"/>
+      <c r="C31" s="73">
         <v>57660164354.37</v>
       </c>
-      <c r="D31" s="78">
+      <c r="D31" s="73">
         <v>44134885588.74</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="73">
         <v>54685529880.01</v>
       </c>
-      <c r="F31" s="78">
+      <c r="F31" s="73">
         <v>44173335633.38</v>
       </c>
     </row>
     <row r="32" ht="33.75" spans="1:6">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="175" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="176" t="s">
+      <c r="B32" s="165" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="177" t="s">
+      <c r="D32" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="177" t="s">
+      <c r="E32" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="177" t="s">
+      <c r="F32" s="167" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:6">
-      <c r="A33" s="178"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="180" t="s">
+      <c r="A33" s="62"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="170" t="s">
+      <c r="D33" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="180" t="s">
+      <c r="E33" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="170" t="s">
+      <c r="F33" s="160" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="183">
+      <c r="C35" s="172">
         <v>4619193530.69</v>
       </c>
-      <c r="D35" s="183">
+      <c r="D35" s="172">
         <v>5466278976.31</v>
       </c>
-      <c r="E35" s="182" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="183">
+      <c r="E35" s="171" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="172">
         <v>20000000</v>
       </c>
     </row>
-    <row r="36" ht="66" spans="1:6">
-      <c r="A36" s="184" t="s">
+    <row r="36" ht="33" spans="1:6">
+      <c r="A36" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="71">
+      <c r="B36" s="49"/>
+      <c r="C36" s="66">
         <v>784639.53</v>
       </c>
-      <c r="D36" s="71">
+      <c r="D36" s="66">
         <v>1209158.71</v>
       </c>
-      <c r="E36" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="48" t="s">
+      <c r="E36" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="182" t="s">
+      <c r="B37" s="171" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="183">
+      <c r="C37" s="172">
         <v>6905411234.18</v>
       </c>
-      <c r="D37" s="183">
+      <c r="D37" s="172">
         <v>5259177206.37</v>
       </c>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="182" t="s">
+      <c r="B38" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="182"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="171"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="182" t="s">
+      <c r="B39" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="183">
+      <c r="C39" s="172">
         <v>2720706062.61</v>
       </c>
-      <c r="D39" s="183">
+      <c r="D39" s="172">
         <v>2138659367.34</v>
       </c>
-      <c r="E39" s="183">
+      <c r="E39" s="172">
         <v>1102875.47</v>
       </c>
-      <c r="F39" s="189"/>
+      <c r="F39" s="171"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="182" t="s">
+      <c r="B40" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="182" t="s">
+      <c r="B41" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="183">
+      <c r="C41" s="172">
         <v>19741816.18</v>
       </c>
-      <c r="D41" s="183">
+      <c r="D41" s="172">
         <v>13899791.33</v>
       </c>
-      <c r="E41" s="182" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="183">
+      <c r="E41" s="171" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="172">
         <v>24165.67</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="182" t="s">
+      <c r="B42" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="183"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="182" t="s">
+      <c r="B43" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="183">
+      <c r="C43" s="172">
         <v>2787710410.86</v>
       </c>
-      <c r="D43" s="183">
+      <c r="D43" s="172">
         <v>1316242561.22</v>
       </c>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="71">
+      <c r="B44" s="49"/>
+      <c r="C44" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="66">
         <v>8763.78</v>
       </c>
-      <c r="E44" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="48" t="s">
+      <c r="E44" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="185" t="s">
+      <c r="A45" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="183">
+      <c r="B45" s="64"/>
+      <c r="C45" s="172">
         <v>21544603847.19</v>
       </c>
-      <c r="D45" s="183">
+      <c r="D45" s="172">
         <v>18386958484.15</v>
       </c>
-      <c r="E45" s="183">
+      <c r="E45" s="172">
         <v>93033801.99</v>
       </c>
-      <c r="F45" s="183">
+      <c r="F45" s="172">
         <v>73335633.38</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="182" t="s">
+      <c r="B47" s="171" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="183">
+      <c r="C47" s="172">
         <v>2345240281.28</v>
       </c>
-      <c r="D47" s="183">
+      <c r="D47" s="172">
         <v>4761013384.37</v>
       </c>
-      <c r="E47" s="189"/>
-      <c r="F47" s="189"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="187">
+      <c r="C48" s="176">
         <v>529406177.7</v>
       </c>
-      <c r="D48" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="59" t="s">
+      <c r="D48" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="182" t="s">
+      <c r="B49" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="183">
+      <c r="C49" s="172">
         <v>20559600</v>
       </c>
-      <c r="D49" s="183">
+      <c r="D49" s="172">
         <v>27000000</v>
       </c>
-      <c r="E49" s="189"/>
-      <c r="F49" s="189"/>
+      <c r="E49" s="171"/>
+      <c r="F49" s="171"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="182" t="s">
+      <c r="B50" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="183">
+      <c r="C50" s="172">
         <v>172465125.28</v>
       </c>
-      <c r="D50" s="183">
+      <c r="D50" s="172">
         <v>235267336.93</v>
       </c>
-      <c r="E50" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="59" t="s">
+      <c r="E50" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="182" t="s">
+      <c r="B51" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="183">
+      <c r="C51" s="172">
         <v>133652387.03</v>
       </c>
-      <c r="D51" s="183">
+      <c r="D51" s="172">
         <v>111667389.34</v>
       </c>
-      <c r="E51" s="189"/>
-      <c r="F51" s="189"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="182" t="s">
+      <c r="B52" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="183">
+      <c r="C52" s="172">
         <v>170934714.41</v>
       </c>
-      <c r="D52" s="183">
+      <c r="D52" s="172">
         <v>45267778.02</v>
       </c>
-      <c r="E52" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="59" t="s">
+      <c r="E52" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="182" t="s">
+      <c r="B53" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="183">
+      <c r="C53" s="172">
         <v>10669991.98</v>
       </c>
-      <c r="D53" s="183">
+      <c r="D53" s="172">
         <v>11047033.68</v>
       </c>
-      <c r="E53" s="189"/>
-      <c r="F53" s="189"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="51"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="41">
         <v>3382928277.68</v>
       </c>
       <c r="D54" s="41">
         <v>5191262922.34</v>
       </c>
-      <c r="E54" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="48" t="s">
+      <c r="E54" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B55" s="69"/>
-      <c r="C55" s="183">
+      <c r="B55" s="64"/>
+      <c r="C55" s="172">
         <v>24927532124.87</v>
       </c>
-      <c r="D55" s="183">
+      <c r="D55" s="172">
         <v>23578221406.49</v>
       </c>
-      <c r="E55" s="183">
+      <c r="E55" s="172">
         <v>93033801.99</v>
       </c>
-      <c r="F55" s="183">
+      <c r="F55" s="172">
         <v>73335633.38</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="188" t="s">
+      <c r="A56" s="177" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="186"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="186"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="175"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="175"/>
+      <c r="F56" s="175"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="182" t="s">
+      <c r="B57" s="171" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="183">
+      <c r="C57" s="172">
         <v>4411015524</v>
       </c>
-      <c r="D57" s="183">
+      <c r="D57" s="172">
         <v>4183678213</v>
       </c>
-      <c r="E57" s="183">
+      <c r="E57" s="172">
         <v>4411015524</v>
       </c>
-      <c r="F57" s="183">
+      <c r="F57" s="172">
         <v>4183678213</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="174" t="s">
+      <c r="B58" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="78">
+      <c r="C58" s="73">
         <v>15872950731.03</v>
       </c>
-      <c r="D58" s="78">
+      <c r="D58" s="73">
         <v>8236698341.64</v>
       </c>
-      <c r="E58" s="76">
+      <c r="E58" s="71">
         <v>46530971136.14</v>
       </c>
-      <c r="F58" s="190">
+      <c r="F58" s="178">
         <v>38991327794.39</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="182" t="s">
+      <c r="B59" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="183">
+      <c r="C59" s="172">
         <v>95759396.32</v>
       </c>
-      <c r="D59" s="189"/>
-      <c r="E59" s="189"/>
-      <c r="F59" s="189"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="174" t="s">
+      <c r="B60" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="78">
+      <c r="C60" s="73">
         <v>586501527.41</v>
       </c>
-      <c r="D60" s="78">
+      <c r="D60" s="73">
         <v>272113202.75</v>
       </c>
-      <c r="E60" s="76">
+      <c r="E60" s="71">
         <v>433456527.1</v>
       </c>
-      <c r="F60" s="76">
+      <c r="F60" s="71">
         <v>119068202.44</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="182" t="s">
+      <c r="B61" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="183">
+      <c r="C61" s="172">
         <v>11494769383.51</v>
       </c>
-      <c r="D61" s="183">
+      <c r="D61" s="172">
         <v>7552595222.64</v>
       </c>
-      <c r="E61" s="183">
+      <c r="E61" s="172">
         <v>3217052890.78</v>
       </c>
-      <c r="F61" s="183">
+      <c r="F61" s="172">
         <v>805925790.17</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="174" t="s">
+      <c r="B62" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="78">
+      <c r="C62" s="73">
         <v>219830232.83</v>
       </c>
-      <c r="D62" s="78">
+      <c r="D62" s="73">
         <v>266682686.93</v>
       </c>
-      <c r="E62" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="48" t="s">
+      <c r="E62" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="C63" s="183">
+      <c r="B63" s="64"/>
+      <c r="C63" s="172">
         <v>32680826795.1</v>
       </c>
-      <c r="D63" s="183">
+      <c r="D63" s="172">
         <v>20511767666.96</v>
       </c>
-      <c r="E63" s="183">
+      <c r="E63" s="172">
         <v>54592496078.02</v>
       </c>
-      <c r="F63" s="183">
+      <c r="F63" s="172">
         <v>44100000000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="174" t="s">
+      <c r="B64" s="164" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="78">
+      <c r="C64" s="73">
         <v>51805434.4</v>
       </c>
-      <c r="D64" s="78">
+      <c r="D64" s="73">
         <v>44896515.29</v>
       </c>
-      <c r="E64" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" s="48" t="s">
+      <c r="E64" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="69"/>
-      <c r="C65" s="183">
+      <c r="B65" s="64"/>
+      <c r="C65" s="172">
         <v>32732632229.5</v>
       </c>
-      <c r="D65" s="183">
+      <c r="D65" s="172">
         <v>20556664182.25</v>
       </c>
-      <c r="E65" s="183">
+      <c r="E65" s="172">
         <v>54592496078.02</v>
       </c>
-      <c r="F65" s="183">
+      <c r="F65" s="172">
         <v>44100000000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="78">
+      <c r="B66" s="49"/>
+      <c r="C66" s="73">
         <v>57660164354.37</v>
       </c>
-      <c r="D66" s="76">
+      <c r="D66" s="71">
         <v>44134885588.74</v>
       </c>
-      <c r="E66" s="76">
+      <c r="E66" s="71">
         <v>54685529880.01</v>
       </c>
-      <c r="F66" s="190">
+      <c r="F66" s="178">
         <v>44173335633.38</v>
       </c>
     </row>
@@ -6112,702 +6083,702 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="149" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:6">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="158" t="s">
+      <c r="E2" s="150" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="151" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="139">
+      <c r="C3" s="132">
         <v>71094296984.46</v>
       </c>
-      <c r="D3" s="139">
+      <c r="D3" s="132">
         <v>57482698073.15</v>
       </c>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="152" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="139">
+      <c r="F3" s="132">
         <v>404289187.91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="115">
+      <c r="C4" s="110">
         <v>-56823114268.34</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="116">
         <v>-46165166641.49</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="110">
         <v>-336446991.61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="110">
         <v>-199191336.78</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="110">
         <v>-203300318.34</v>
       </c>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="110">
         <v>-27461169.89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="110">
         <v>-1357257650.07</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="110">
         <v>-1150596698.85</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="115">
+      <c r="F6" s="110">
         <v>-28022422.11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="110">
         <v>-7349917130.45</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="110">
         <v>-6079455133.67</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="110">
         <v>-29900194.97</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="110">
         <v>-40112852.33</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="110">
         <v>-155423931.26</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="110">
         <v>-417428212.6</v>
       </c>
-      <c r="E8" s="115">
+      <c r="E8" s="110">
         <v>19495143.76</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="110">
         <v>-2839717.36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="110">
         <v>-63754358.1</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="110">
         <v>-19172492</v>
       </c>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="110">
         <v>-1251845.14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="145">
+      <c r="C10" s="138">
         <v>-3198658.84</v>
       </c>
-      <c r="D10" s="145">
+      <c r="D10" s="138">
         <v>-13005602.05</v>
       </c>
-      <c r="E10" s="149" t="s">
+      <c r="E10" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="149" t="s">
+      <c r="F10" s="141" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="110">
         <v>1156624812.34</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="110">
         <v>258114563.37</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="110">
         <v>3172377179.03</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="110">
         <v>810383312.86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="145">
+      <c r="B12" s="109"/>
+      <c r="C12" s="138">
         <v>-125212855.06</v>
       </c>
-      <c r="D12" s="145">
+      <c r="D12" s="138">
         <v>-99453785.45</v>
       </c>
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="141" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="110">
         <v>-17613238.77</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="110">
         <v>-6095807.67</v>
       </c>
-      <c r="E13" s="148" t="s">
+      <c r="E13" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="148" t="s">
+      <c r="F13" s="140" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="145">
+      <c r="C14" s="138">
         <v>167519256.8</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="F14" s="141" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="143" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115">
+      <c r="B15" s="109"/>
+      <c r="C15" s="110">
         <v>6448970480.99</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="110">
         <v>3686591729.85</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="110">
         <v>3161972127.82</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="110">
         <v>778537502.33</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="133" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="110">
         <v>127591848.6</v>
       </c>
-      <c r="D16" s="115">
+      <c r="D16" s="110">
         <v>1557291552.38</v>
       </c>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="110">
         <v>134286784.08</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="133" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="110">
         <v>-74525863.32</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="110">
         <v>-53151909.03</v>
       </c>
-      <c r="E17" s="148" t="s">
+      <c r="E17" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="115">
+      <c r="F17" s="110">
         <v>-2564354.33</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115">
+      <c r="B18" s="109"/>
+      <c r="C18" s="110">
         <v>6502036466.27</v>
       </c>
-      <c r="D18" s="115">
+      <c r="D18" s="110">
         <v>5190731373.2</v>
       </c>
-      <c r="E18" s="115">
+      <c r="E18" s="110">
         <v>3161972127.82</v>
       </c>
-      <c r="F18" s="115">
+      <c r="F18" s="110">
         <v>910259932.08</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="115">
+      <c r="C19" s="110">
         <v>-1750187860.01</v>
       </c>
-      <c r="D19" s="115">
+      <c r="D19" s="110">
         <v>-1029946431.86</v>
       </c>
-      <c r="E19" s="115">
+      <c r="E19" s="110">
         <v>-18088881.25</v>
       </c>
-      <c r="F19" s="115">
+      <c r="F19" s="110">
         <v>-15028241.34</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="151" t="s">
+      <c r="A20" s="143" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115">
+      <c r="B20" s="109"/>
+      <c r="C20" s="110">
         <v>4751848606.26</v>
       </c>
-      <c r="D20" s="115">
+      <c r="D20" s="110">
         <v>4160784941.34</v>
       </c>
-      <c r="E20" s="115">
+      <c r="E20" s="110">
         <v>3143883246.57</v>
       </c>
-      <c r="F20" s="115">
+      <c r="F20" s="110">
         <v>895231690.74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="152" t="s">
+      <c r="A21" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="145" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="128">
+      <c r="B22" s="109"/>
+      <c r="C22" s="121">
         <v>4751848606.26</v>
       </c>
-      <c r="D22" s="128">
+      <c r="D22" s="121">
         <v>4160784941.34</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="153">
         <v>3143883246.57</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="153">
         <v>895231690.74</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="154" t="s">
+      <c r="B23" s="109"/>
+      <c r="C23" s="146" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="154" t="s">
+      <c r="D23" s="146" t="s">
         <v>202</v>
       </c>
-      <c r="E23" s="149" t="s">
+      <c r="E23" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="149" t="s">
+      <c r="F23" s="141" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="142" t="s">
+      <c r="A25" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="115">
+      <c r="B25" s="109"/>
+      <c r="C25" s="110">
         <v>-18841096.89</v>
       </c>
-      <c r="D25" s="115">
+      <c r="D25" s="110">
         <v>-19641210.66</v>
       </c>
-      <c r="E25" s="148" t="s">
+      <c r="E25" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="148" t="s">
+      <c r="F25" s="140" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115">
+      <c r="B26" s="109"/>
+      <c r="C26" s="110">
         <v>4770689703.15</v>
       </c>
-      <c r="D26" s="115">
+      <c r="D26" s="110">
         <v>4180426152</v>
       </c>
-      <c r="E26" s="162">
+      <c r="E26" s="154">
         <v>3143883246.57</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="154">
         <v>895231690.74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="151" t="s">
+      <c r="A27" s="143" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="115">
+      <c r="B27" s="109"/>
+      <c r="C27" s="110">
         <v>-47429834.51</v>
       </c>
-      <c r="D27" s="115">
+      <c r="D27" s="110">
         <v>203850248.75</v>
       </c>
-      <c r="E27" s="148" t="s">
+      <c r="E27" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="148" t="s">
+      <c r="F27" s="140" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="145">
+      <c r="B28" s="109"/>
+      <c r="C28" s="138">
         <v>-46852454.1</v>
       </c>
-      <c r="D28" s="145">
+      <c r="D28" s="138">
         <v>206147901.45</v>
       </c>
-      <c r="E28" s="149" t="s">
+      <c r="E28" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="149" t="s">
+      <c r="F28" s="141" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="140" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="115">
+      <c r="C29" s="110">
         <v>-46852454.1</v>
       </c>
-      <c r="D29" s="115">
+      <c r="D29" s="110">
         <v>206147901.45</v>
       </c>
-      <c r="E29" s="148" t="s">
+      <c r="E29" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="148" t="s">
+      <c r="F29" s="140" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="149" t="s">
+      <c r="B30" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="145">
+      <c r="C30" s="138">
         <v>198190912.33</v>
       </c>
-      <c r="D30" s="145">
+      <c r="D30" s="138">
         <v>17094595.27</v>
       </c>
-      <c r="E30" s="149" t="s">
+      <c r="E30" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="149" t="s">
+      <c r="F30" s="141" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="140" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="115">
+      <c r="C31" s="110">
         <v>-245043366.43</v>
       </c>
-      <c r="D31" s="115">
+      <c r="D31" s="110">
         <v>189053306.18</v>
       </c>
-      <c r="E31" s="148" t="s">
+      <c r="E31" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="148" t="s">
+      <c r="F31" s="140" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="143" t="s">
+      <c r="A32" s="136" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="149" t="s">
+      <c r="B32" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="155">
+      <c r="C32" s="147">
         <v>-577380.41</v>
       </c>
-      <c r="D32" s="145">
+      <c r="D32" s="138">
         <v>-2297652.7</v>
       </c>
-      <c r="E32" s="149" t="s">
+      <c r="E32" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="149" t="s">
+      <c r="F32" s="141" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="151" t="s">
+      <c r="A33" s="143" t="s">
         <v>213</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115">
+      <c r="B33" s="109"/>
+      <c r="C33" s="110">
         <v>4704418771.75</v>
       </c>
-      <c r="D33" s="115">
+      <c r="D33" s="110">
         <v>4364635190.09</v>
       </c>
-      <c r="E33" s="162">
+      <c r="E33" s="154">
         <v>3143883246.57</v>
       </c>
-      <c r="F33" s="162">
+      <c r="F33" s="154">
         <v>895231690.74</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="133" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115">
+      <c r="B34" s="109"/>
+      <c r="C34" s="110">
         <v>4723837249.05</v>
       </c>
-      <c r="D34" s="115">
+      <c r="D34" s="110">
         <v>4386574053.45</v>
       </c>
-      <c r="E34" s="162">
+      <c r="E34" s="154">
         <v>3143883246.57</v>
       </c>
-      <c r="F34" s="162">
+      <c r="F34" s="154">
         <v>895231690.74</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="115">
+      <c r="B35" s="109"/>
+      <c r="C35" s="110">
         <v>-19418477.3</v>
       </c>
-      <c r="D35" s="115">
+      <c r="D35" s="110">
         <v>-21938863.36</v>
       </c>
-      <c r="E35" s="148" t="s">
+      <c r="E35" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="148" t="s">
+      <c r="F35" s="140" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="156" t="s">
+      <c r="A36" s="148" t="s">
         <v>216</v>
       </c>
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="133" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="148" t="s">
+      <c r="B37" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="123">
+      <c r="C37" s="116">
         <v>1.12</v>
       </c>
-      <c r="D37" s="123">
+      <c r="D37" s="116">
         <v>1.06</v>
       </c>
-      <c r="E37" s="163" t="s">
+      <c r="E37" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="F37" s="148" t="s">
+      <c r="F37" s="140" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C38" s="123">
+      <c r="C38" s="116">
         <v>1.12</v>
       </c>
-      <c r="D38" s="123">
+      <c r="D38" s="116">
         <v>1.06</v>
       </c>
-      <c r="E38" s="163" t="s">
+      <c r="E38" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="F38" s="148" t="s">
+      <c r="F38" s="140" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6842,43 +6813,43 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="123" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:6">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="125" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="107" t="s">
         <v>227</v>
       </c>
       <c r="B3" s="11"/>
@@ -6887,749 +6858,749 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" ht="18" spans="1:6">
-      <c r="A4" s="113" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="108" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115">
+      <c r="B4" s="109"/>
+      <c r="C4" s="110">
         <v>73723117129.7</v>
       </c>
-      <c r="D4" s="115">
+      <c r="D4" s="110">
         <v>60171836524.16</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="110">
         <v>392365095.26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115">
+      <c r="B5" s="109"/>
+      <c r="C5" s="110">
         <v>40122900.6</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="110">
         <v>59725939.81</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="108" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:6">
-      <c r="A6" s="113" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="108" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="110">
         <v>47417930952.01</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="110">
         <v>41718960264.06</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="110">
         <v>187390841.86</v>
       </c>
-      <c r="F6" s="115">
+      <c r="F6" s="110">
         <v>1652214.11</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:6">
-      <c r="A7" s="113" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="115">
+      <c r="B7" s="109"/>
+      <c r="C7" s="110">
         <v>121181170982.31</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="110">
         <v>101950522728.03</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="110">
         <v>187390841.86</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="110">
         <v>394017309.37</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:6">
-      <c r="A8" s="113" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="115">
+      <c r="B8" s="109"/>
+      <c r="C8" s="110">
         <v>-42356700502.85</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="110">
         <v>-30733102010.37</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="110">
         <v>-258148215.42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115">
+      <c r="B9" s="109"/>
+      <c r="C9" s="110">
         <v>-49803788.76</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="110">
         <v>-376368859.06</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="108" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="1:6">
-      <c r="A10" s="113" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115">
+      <c r="B10" s="109"/>
+      <c r="C10" s="110">
         <v>-1054229776.45</v>
       </c>
-      <c r="D10" s="115">
+      <c r="D10" s="110">
         <v>-223011006.14</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F10" s="113" t="s">
+      <c r="F10" s="108" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="1:6">
-      <c r="A11" s="113" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="108" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115">
+      <c r="B11" s="109"/>
+      <c r="C11" s="110">
         <v>-16005495207.39</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="110">
         <v>-15550391479.59</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="110">
         <v>-1189942.98</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="110">
         <v>-26677135.25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115">
+      <c r="B12" s="109"/>
+      <c r="C12" s="110">
         <v>-2584148017.07</v>
       </c>
-      <c r="D12" s="115">
+      <c r="D12" s="110">
         <v>-2629689263.41</v>
       </c>
-      <c r="E12" s="115">
+      <c r="E12" s="110">
         <v>-57610452.27</v>
       </c>
-      <c r="F12" s="115">
+      <c r="F12" s="110">
         <v>-26388322.73</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="1:6">
-      <c r="A13" s="113" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="110">
         <v>-53022460678.06</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="110">
         <v>-46762922323.59</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="110">
         <v>-186782587.66</v>
       </c>
-      <c r="F13" s="115">
+      <c r="F13" s="110">
         <v>-33394276.67</v>
       </c>
     </row>
-    <row r="14" ht="18" spans="1:6">
-      <c r="A14" s="113" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115">
+      <c r="B14" s="109"/>
+      <c r="C14" s="110">
         <v>-115072837970.58</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="110">
         <v>-96275484942.16</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="110">
         <v>-245582982.91</v>
       </c>
-      <c r="F14" s="115">
+      <c r="F14" s="110">
         <v>-344607950.07</v>
       </c>
     </row>
-    <row r="15" ht="18" spans="1:6">
-      <c r="A15" s="117" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="110">
         <v>6108333011.73</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="110">
         <v>5675037785.87</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="110">
         <v>-58192141.05</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="110">
         <v>49409359.3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-    </row>
-    <row r="17" ht="18" spans="1:6">
-      <c r="A17" s="113" t="s">
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115">
+      <c r="B17" s="109"/>
+      <c r="C17" s="110">
         <v>755394954.13</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="110">
         <v>1275580807.29</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E17" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="115">
+      <c r="F17" s="110">
         <v>50000</v>
       </c>
     </row>
-    <row r="18" ht="18" spans="1:6">
-      <c r="A18" s="113" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="108" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115">
+      <c r="B18" s="109"/>
+      <c r="C18" s="110">
         <v>186890659.13</v>
       </c>
-      <c r="D18" s="115">
+      <c r="D18" s="110">
         <v>368232124.37</v>
       </c>
-      <c r="E18" s="115">
+      <c r="E18" s="110">
         <v>839947224.49</v>
       </c>
-      <c r="F18" s="115">
+      <c r="F18" s="110">
         <v>59000</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:6">
-      <c r="A19" s="113" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="115">
+      <c r="D19" s="110">
         <v>110652843.66</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F19" s="113" t="s">
+      <c r="F19" s="108" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:6">
-      <c r="A20" s="113" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115">
+      <c r="B20" s="109"/>
+      <c r="C20" s="110">
         <v>4101266.84</v>
       </c>
-      <c r="D20" s="115">
+      <c r="D20" s="110">
         <v>31189603.97</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="108" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:6">
-      <c r="A21" s="113" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="115">
+      <c r="C21" s="110">
         <v>6830248.45</v>
       </c>
-      <c r="D21" s="115">
+      <c r="D21" s="110">
         <v>642077960.96</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="108" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:6">
-      <c r="A22" s="113" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="C22" s="115">
+      <c r="C22" s="110">
         <v>45470927456.56</v>
       </c>
-      <c r="D22" s="115">
+      <c r="D22" s="110">
         <v>92450403185.99</v>
       </c>
-      <c r="E22" s="115">
+      <c r="E22" s="110">
         <v>9955000000</v>
       </c>
-      <c r="F22" s="115">
+      <c r="F22" s="110">
         <v>47500000</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:6">
-      <c r="A23" s="113" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115">
+      <c r="B23" s="109"/>
+      <c r="C23" s="110">
         <v>46424144585.11</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="110">
         <v>94878136526.24</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="110">
         <v>10794947224.49</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="110">
         <v>47609000</v>
       </c>
     </row>
-    <row r="24" ht="18" spans="1:6">
-      <c r="A24" s="113" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115">
+      <c r="B24" s="109"/>
+      <c r="C24" s="110">
         <v>-5642547025.94</v>
       </c>
-      <c r="D24" s="115">
+      <c r="D24" s="110">
         <v>-4861856960.33</v>
       </c>
-      <c r="E24" s="113" t="s">
+      <c r="E24" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F24" s="115">
+      <c r="F24" s="110">
         <v>-2617460.8</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="108" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="115">
+      <c r="B25" s="109"/>
+      <c r="C25" s="110">
         <v>-988450366.21</v>
       </c>
-      <c r="D25" s="115">
+      <c r="D25" s="110">
         <v>-1844011786.37</v>
       </c>
-      <c r="E25" s="113" t="s">
+      <c r="E25" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F25" s="115">
+      <c r="F25" s="110">
         <v>-10000000</v>
       </c>
     </row>
-    <row r="26" ht="18" spans="1:6">
-      <c r="A26" s="113" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="115">
+      <c r="C26" s="110">
         <v>-5737633.77</v>
       </c>
-      <c r="D26" s="119" t="s">
+      <c r="D26" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="E26" s="113" t="s">
+      <c r="E26" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F26" s="113" t="s">
+      <c r="F26" s="108" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" ht="18" spans="1:6">
-      <c r="A27" s="113" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="115">
+      <c r="C27" s="110">
         <v>-42212354795.38</v>
       </c>
-      <c r="D27" s="115">
+      <c r="D27" s="110">
         <v>-91887000000</v>
       </c>
-      <c r="E27" s="115">
+      <c r="E27" s="110">
         <v>-17143016446.65</v>
       </c>
-      <c r="F27" s="113" t="s">
+      <c r="F27" s="108" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" ht="18" spans="1:6">
-      <c r="A28" s="113" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="115">
+      <c r="B28" s="109"/>
+      <c r="C28" s="110">
         <v>-48849089821.3</v>
       </c>
-      <c r="D28" s="115">
+      <c r="D28" s="110">
         <v>-98592868746.7</v>
       </c>
-      <c r="E28" s="115">
+      <c r="E28" s="110">
         <v>-17143016446.65</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="110">
         <v>-12617460.8</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="114" t="s">
         <v>260</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="115">
+      <c r="B29" s="109"/>
+      <c r="C29" s="110">
         <v>-2424945236.19</v>
       </c>
-      <c r="D29" s="115">
+      <c r="D29" s="110">
         <v>-3714732220.46</v>
       </c>
-      <c r="E29" s="115">
+      <c r="E29" s="110">
         <v>-6348069222.16</v>
       </c>
-      <c r="F29" s="115">
+      <c r="F29" s="110">
         <v>34991539.2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="115">
+      <c r="B31" s="109"/>
+      <c r="C31" s="110">
         <v>7920448816.96</v>
       </c>
-      <c r="D31" s="115">
+      <c r="D31" s="110">
         <v>3925708705</v>
       </c>
-      <c r="E31" s="115">
+      <c r="E31" s="110">
         <v>7906961305.96</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="108" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="115">
+      <c r="B32" s="109"/>
+      <c r="C32" s="110">
         <v>13487511</v>
       </c>
-      <c r="D32" s="123">
+      <c r="D32" s="116">
         <v>3708705</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="113" t="s">
+      <c r="F32" s="108" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115">
+      <c r="B33" s="109"/>
+      <c r="C33" s="110">
         <v>5476332537.94</v>
       </c>
-      <c r="D33" s="115">
+      <c r="D33" s="110">
         <v>6783842327.83</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F33" s="115">
+      <c r="F33" s="110">
         <v>70000000</v>
       </c>
     </row>
-    <row r="34" ht="18" spans="1:6">
-      <c r="A34" s="113" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="111" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="D34" s="115">
+      <c r="D34" s="110">
         <v>2045945476.8</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="F34" s="115">
+      <c r="F34" s="110">
         <v>37111797.05</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="115">
+      <c r="B35" s="109"/>
+      <c r="C35" s="110">
         <v>13396781354.9</v>
       </c>
-      <c r="D35" s="115">
+      <c r="D35" s="110">
         <v>12755496509.63</v>
       </c>
-      <c r="E35" s="115">
+      <c r="E35" s="110">
         <v>7906961305.96</v>
       </c>
-      <c r="F35" s="115">
+      <c r="F35" s="110">
         <v>107111797.05</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="114" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="115">
+      <c r="B36" s="109"/>
+      <c r="C36" s="110">
         <v>-6437359409.94</v>
       </c>
-      <c r="D36" s="115">
+      <c r="D36" s="110">
         <v>-7471666265.19</v>
       </c>
-      <c r="E36" s="115">
+      <c r="E36" s="110">
         <v>-20000000</v>
       </c>
-      <c r="F36" s="115">
+      <c r="F36" s="110">
         <v>-117000000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="122" t="s">
+      <c r="A37" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="C37" s="115">
+      <c r="B37" s="109"/>
+      <c r="C37" s="110">
         <v>-842836267.95</v>
       </c>
-      <c r="D37" s="115">
+      <c r="D37" s="110">
         <v>-1809644000.4</v>
       </c>
-      <c r="E37" s="115">
+      <c r="E37" s="110">
         <v>-418377666.33</v>
       </c>
-      <c r="F37" s="115">
+      <c r="F37" s="110">
         <v>-22026187.82</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="122" t="s">
+      <c r="A38" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="111" t="s">
         <v>271</v>
       </c>
-      <c r="C38" s="115">
+      <c r="C38" s="110">
         <v>-74195355.9</v>
       </c>
-      <c r="D38" s="115">
+      <c r="D38" s="110">
         <v>-2570904301.72</v>
       </c>
-      <c r="E38" s="115">
+      <c r="E38" s="110">
         <v>-74195355.9</v>
       </c>
-      <c r="F38" s="115">
+      <c r="F38" s="110">
         <v>-19567500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="115">
+      <c r="B39" s="109"/>
+      <c r="C39" s="110">
         <v>-7354391033.79</v>
       </c>
-      <c r="D39" s="115">
+      <c r="D39" s="110">
         <v>-11852214567.31</v>
       </c>
-      <c r="E39" s="115">
+      <c r="E39" s="110">
         <v>-512573022.23</v>
       </c>
-      <c r="F39" s="115">
+      <c r="F39" s="110">
         <v>-158593687.82</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="120" t="s">
+      <c r="A40" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="B40" s="114"/>
-      <c r="C40" s="115">
+      <c r="B40" s="109"/>
+      <c r="C40" s="110">
         <v>6042390321.11</v>
       </c>
-      <c r="D40" s="115">
+      <c r="D40" s="110">
         <v>903281942.32</v>
       </c>
-      <c r="E40" s="115">
+      <c r="E40" s="110">
         <v>7394388283.73</v>
       </c>
-      <c r="F40" s="115">
+      <c r="F40" s="110">
         <v>-51481890.77</v>
       </c>
     </row>
-    <row r="41" ht="18" spans="1:6">
-      <c r="A41" s="113" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="115">
+      <c r="B41" s="109"/>
+      <c r="C41" s="110">
         <v>-13617726.44</v>
       </c>
-      <c r="D41" s="115">
+      <c r="D41" s="110">
         <v>61387055.88</v>
       </c>
-      <c r="E41" s="123">
+      <c r="E41" s="116">
         <v>-46225.44</v>
       </c>
-      <c r="F41" s="115">
+      <c r="F41" s="110">
         <v>110702.77</v>
       </c>
     </row>
-    <row r="42" ht="18" spans="1:6">
-      <c r="A42" s="113" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="115">
+      <c r="C42" s="110">
         <v>9712160370.21</v>
       </c>
-      <c r="D42" s="115">
+      <c r="D42" s="110">
         <v>2924974563.61</v>
       </c>
-      <c r="E42" s="115">
+      <c r="E42" s="110">
         <v>988080695.08</v>
       </c>
-      <c r="F42" s="115">
+      <c r="F42" s="110">
         <v>33029710.5</v>
       </c>
     </row>
-    <row r="43" ht="18" spans="1:6">
-      <c r="A43" s="113" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="B43" s="114"/>
-      <c r="C43" s="115">
+      <c r="B43" s="109"/>
+      <c r="C43" s="110">
         <v>6369775801.18</v>
       </c>
-      <c r="D43" s="115">
+      <c r="D43" s="110">
         <v>3444801237.57</v>
       </c>
-      <c r="E43" s="115">
+      <c r="E43" s="110">
         <v>58905618.31</v>
       </c>
-      <c r="F43" s="115">
+      <c r="F43" s="110">
         <v>25875907.81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="126" t="s">
+      <c r="A44" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="128">
+      <c r="C44" s="121">
         <v>16081936171.39</v>
       </c>
-      <c r="D44" s="128">
+      <c r="D44" s="121">
         <v>6369775801.18</v>
       </c>
-      <c r="E44" s="128">
+      <c r="E44" s="121">
         <v>1046986313.39</v>
       </c>
-      <c r="F44" s="128">
+      <c r="F44" s="121">
         <v>58905618.31</v>
       </c>
     </row>
@@ -7671,601 +7642,601 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:11">
-      <c r="A1" s="80"/>
-      <c r="B1" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="82" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="95" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:11">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="88">
+      <c r="B3" s="44"/>
+      <c r="C3" s="83">
         <v>4183678213</v>
       </c>
-      <c r="D3" s="89">
+      <c r="D3" s="84">
         <v>8236698341.64</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="F3" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="97">
+      <c r="F3" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="92">
         <v>272113202.75</v>
       </c>
-      <c r="I3" s="103">
+      <c r="I3" s="98">
         <v>7552595222.64</v>
       </c>
-      <c r="J3" s="103">
+      <c r="J3" s="98">
         <v>44896515.29</v>
       </c>
-      <c r="K3" s="89">
+      <c r="K3" s="84">
         <v>20556664182.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="72">
+      <c r="B6" s="49"/>
+      <c r="C6" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="67">
         <v>4770689703.15</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="67">
         <v>-18841096.89</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="48">
         <v>4751848606.26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="73">
+      <c r="B7" s="49"/>
+      <c r="C7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="68">
         <v>-46852454.1</v>
       </c>
-      <c r="F7" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="72">
+      <c r="F7" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="67">
         <v>-577380.41</v>
       </c>
-      <c r="K7" s="104">
+      <c r="K7" s="99">
         <v>-47429834.51</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="73">
+      <c r="B8" s="49"/>
+      <c r="C8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="68">
         <v>-46852454.1</v>
       </c>
-      <c r="F8" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="72">
+      <c r="F8" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="67">
         <v>4770689703.15</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="67">
         <v>-19418477.3</v>
       </c>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="100" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="91">
+      <c r="B10" s="49"/>
+      <c r="C10" s="86">
         <v>227337311</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>7604681212.8</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="72">
+      <c r="E10" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="67">
         <v>16787511</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="48">
         <v>7848806034.8</v>
       </c>
     </row>
     <row r="11" ht="33" spans="1:11">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="72">
+      <c r="B11" s="49"/>
+      <c r="C11" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="67">
         <v>419902.42</v>
       </c>
-      <c r="E11" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="72">
+      <c r="E11" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="67">
         <v>4395989.3</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="47">
         <v>4815891.72</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="49">
+      <c r="B12" s="49"/>
+      <c r="C12" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="47">
         <v>-69796629.58</v>
       </c>
-      <c r="E12" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="72">
+      <c r="E12" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="67">
         <v>5143896.11</v>
       </c>
-      <c r="K12" s="104">
+      <c r="K12" s="99">
         <v>-64652733.47</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="91">
+      <c r="C14" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="86">
         <v>95759396.32</v>
       </c>
-      <c r="G14" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="72">
+      <c r="G14" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="67">
         <v>-95759396.32</v>
       </c>
-      <c r="J14" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="90" t="s">
+      <c r="J14" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="85" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="90" t="s">
+      <c r="C15" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="85" t="s">
         <v>59</v>
       </c>
       <c r="H15" s="41">
         <v>314388324.66</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="67">
         <v>-314388324.66</v>
       </c>
-      <c r="J15" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="90" t="s">
+      <c r="J15" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="85" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="72">
+      <c r="C16" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="67">
         <v>-418367821.3</v>
       </c>
-      <c r="J16" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="49">
+      <c r="J16" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="47">
         <v>-418367821.3</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="49">
+      <c r="C17" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="47">
         <v>100947903.75</v>
       </c>
-      <c r="E17" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="104">
+      <c r="E17" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="99">
         <v>100947903.75</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="72">
+      <c r="C19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="67">
         <v>4203637.41</v>
       </c>
-      <c r="H19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="104">
+      <c r="H19" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="99">
         <v>4203637.41</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="72">
+      <c r="C20" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="67">
         <v>-4203637.41</v>
       </c>
-      <c r="H20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="104">
+      <c r="H20" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="99">
         <v>-4203637.41</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="82" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="60">
+      <c r="B21" s="49"/>
+      <c r="C21" s="57">
         <v>4411015524</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="67">
         <v>15872950731.03</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="68">
         <v>219830232.83</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="86">
         <v>95759396.32</v>
       </c>
-      <c r="G21" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="71">
+      <c r="G21" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="66">
         <v>586501527.41</v>
       </c>
-      <c r="I21" s="90" t="s">
+      <c r="I21" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="67">
         <v>51805434.4</v>
       </c>
-      <c r="K21" s="73">
+      <c r="K21" s="68">
         <v>32732632229.5</v>
       </c>
     </row>
@@ -8313,7 +8284,7 @@
       <c r="D1" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="61" t="s">
         <v>307</v>
       </c>
       <c r="F1" s="36" t="s">
@@ -8322,7 +8293,7 @@
       <c r="G1" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="62" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8333,10 +8304,10 @@
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
-      <c r="H2" s="67"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="40" t="s">
@@ -8351,16 +8322,16 @@
       <c r="D3" s="42">
         <v>435884670.92</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="63">
         <v>44754419.1</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="64" t="s">
         <v>312</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="64" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8371,74 +8342,74 @@
       <c r="B4" s="38"/>
       <c r="C4" s="39"/>
       <c r="D4" s="38"/>
-      <c r="E4" s="66"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
-      <c r="H4" s="67"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>316</v>
       </c>
       <c r="B5" s="41">
         <v>93573860.17</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="69" t="s">
+      <c r="C5" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="64" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45">
         <v>556946880.04</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="70">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="65">
         <v>556946880.04</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>495853510.98</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="48">
         <v>47118827.69</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="71">
+      <c r="D7" s="49"/>
+      <c r="E7" s="66">
         <v>727660.4</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="67">
         <v>1191380.58</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="57">
         <v>5144508.22</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="68">
         <v>550035887.87</v>
       </c>
     </row>
@@ -8446,61 +8417,61 @@
       <c r="A8" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-    </row>
-    <row r="9" ht="33" spans="1:8">
-      <c r="A9" s="48" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="47">
         <v>-33267670.03</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="73">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="68">
         <v>-33267670.03</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="53">
+      <c r="B10" s="49"/>
+      <c r="C10" s="51">
         <v>-14769.23</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="74">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="69">
         <v>-1067.96</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="75">
+      <c r="G10" s="49"/>
+      <c r="H10" s="70">
         <v>-15837.19</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="47">
         <v>-97812726.32</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="73">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="68">
         <v>-97812726.32</v>
       </c>
     </row>
@@ -8508,117 +8479,117 @@
       <c r="A12" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="52">
         <v>4550686217.31</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="53">
         <v>324261436.34</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="54">
         <v>992831550.96</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="71">
         <v>45482079.5</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="69">
         <v>29081082.37</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="72">
         <v>13859625.35</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="52">
         <v>5956201991.83</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="53">
         <v>122949848.67</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="53">
         <v>167972599.93</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="54">
         <v>100680018.97</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="71">
         <v>12700614</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="69">
         <v>4377630.68</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="73">
         <v>1762152.47</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="52">
         <v>410442864.72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-    </row>
-    <row r="16" ht="32.25" spans="1:8">
-      <c r="A16" s="52" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="53">
         <v>2833573.82</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="75">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="70">
         <v>2833573.82</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="47">
         <v>96730878.55</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="48">
         <v>45309148.21</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="57">
         <v>126169462.4</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="66">
         <v>9506377.13</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="67">
         <v>2555094.47</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="57">
         <v>3707235.77</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="68">
         <v>283978196.53</v>
       </c>
     </row>
@@ -8626,151 +8597,151 @@
       <c r="A18" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="53">
         <v>-2113606.29</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="55">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="53">
         <v>-2113606.29</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="53">
+      <c r="B20" s="49"/>
+      <c r="C20" s="51">
         <v>-10615.38</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="79">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="74">
         <v>-115.7</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="75">
+      <c r="G20" s="49"/>
+      <c r="H20" s="70">
         <v>-10731.08</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="47">
         <v>-2451620.03</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="73">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="68">
         <v>-2451620.03</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="53">
         <v>217949074.72</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="53">
         <v>213271132.76</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="54">
         <v>226849481.37</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="71">
         <v>22206991.13</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="69">
         <v>6932609.45</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="54">
         <v>5469388.24</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="52">
         <v>692678677.67</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="52">
         <v>4332737142.59</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="53">
         <v>110990303.58</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="54">
         <v>765982069.59</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="71">
         <v>23275088.37</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="69">
         <v>22148472.92</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="54">
         <v>8390237.11</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="52">
         <v>5263523314.16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="52">
         <v>3969389393.84</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="53">
         <v>109184777.95</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="54">
         <v>335204651.95</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="71">
         <v>32053805.1</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="69">
         <v>23513139.07</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G25" s="54">
         <v>6952964.66</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="52">
         <v>4476298732.57</v>
       </c>
     </row>

--- a/program_directory/interpreterAccounting/顺丰控股：2017年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/顺丰控股：2017年年度报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="3"/>
+    <workbookView windowWidth="27720" windowHeight="13665" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="主要会计数据" sheetId="1" r:id="rId1"/>
@@ -2641,10 +2641,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2700,16 +2700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2718,6 +2710,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2732,16 +2732,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2750,14 +2757,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2773,7 +2772,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2781,29 +2780,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2823,10 +2799,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2844,7 +2844,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,13 +2874,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,13 +2916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2892,31 +2928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,7 +2946,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2940,13 +2976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2958,13 +2988,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2976,49 +3012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3167,27 +3167,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3207,6 +3187,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3218,6 +3207,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3237,162 +3241,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -4863,7 +4863,7 @@
   <sheetPr/>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4910,7 +4910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="17.25" spans="1:6">
       <c r="A3" s="34"/>
       <c r="B3" s="159"/>
       <c r="C3" s="160" t="s">
@@ -6068,8 +6068,8 @@
   <sheetPr/>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -6146,10 +6146,10 @@
         <v>168</v>
       </c>
       <c r="C4" s="110">
-        <v>-56823114268.34</v>
+        <v>56823114268.34</v>
       </c>
       <c r="D4" s="116">
-        <v>-46165166641.49</v>
+        <v>46165166641.49</v>
       </c>
       <c r="E4" s="140" t="s">
         <v>169</v>
@@ -6166,10 +6166,10 @@
         <v>172</v>
       </c>
       <c r="C5" s="110">
-        <v>-199191336.78</v>
+        <v>199191336.78</v>
       </c>
       <c r="D5" s="110">
-        <v>-203300318.34</v>
+        <v>203300318.34</v>
       </c>
       <c r="E5" s="140" t="s">
         <v>169</v>
@@ -6186,10 +6186,10 @@
         <v>174</v>
       </c>
       <c r="C6" s="110">
-        <v>-1357257650.07</v>
+        <v>1357257650.07</v>
       </c>
       <c r="D6" s="110">
-        <v>-1150596698.85</v>
+        <v>1150596698.85</v>
       </c>
       <c r="E6" s="140" t="s">
         <v>169</v>
@@ -6206,10 +6206,10 @@
         <v>176</v>
       </c>
       <c r="C7" s="110">
-        <v>-7349917130.45</v>
+        <v>7349917130.45</v>
       </c>
       <c r="D7" s="110">
-        <v>-6079455133.67</v>
+        <v>6079455133.67</v>
       </c>
       <c r="E7" s="110">
         <v>-29900194.97</v>
@@ -6226,10 +6226,10 @@
         <v>178</v>
       </c>
       <c r="C8" s="110">
-        <v>-155423931.26</v>
+        <v>155423931.26</v>
       </c>
       <c r="D8" s="110">
-        <v>-417428212.6</v>
+        <v>417428212.6</v>
       </c>
       <c r="E8" s="110">
         <v>19495143.76</v>
@@ -6246,10 +6246,10 @@
         <v>180</v>
       </c>
       <c r="C9" s="110">
-        <v>-63754358.1</v>
+        <v>63754358.1</v>
       </c>
       <c r="D9" s="110">
-        <v>-19172492</v>
+        <v>19172492</v>
       </c>
       <c r="E9" s="140" t="s">
         <v>169</v>
@@ -6402,10 +6402,10 @@
         <v>194</v>
       </c>
       <c r="C17" s="110">
-        <v>-74525863.32</v>
+        <v>74525863.32</v>
       </c>
       <c r="D17" s="110">
-        <v>-53151909.03</v>
+        <v>53151909.03</v>
       </c>
       <c r="E17" s="140" t="s">
         <v>169</v>
@@ -6440,10 +6440,10 @@
         <v>197</v>
       </c>
       <c r="C19" s="110">
-        <v>-1750187860.01</v>
+        <v>1750187860.01</v>
       </c>
       <c r="D19" s="110">
-        <v>-1029946431.86</v>
+        <v>1029946431.86</v>
       </c>
       <c r="E19" s="110">
         <v>-18088881.25</v>
@@ -6797,8 +6797,8 @@
   <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -6938,10 +6938,10 @@
       </c>
       <c r="B8" s="109"/>
       <c r="C8" s="110">
-        <v>-42356700502.85</v>
+        <v>42356700502.85</v>
       </c>
       <c r="D8" s="110">
-        <v>-30733102010.37</v>
+        <v>30733102010.37</v>
       </c>
       <c r="E8" s="108" t="s">
         <v>229</v>
@@ -6956,10 +6956,10 @@
       </c>
       <c r="B9" s="109"/>
       <c r="C9" s="110">
-        <v>-49803788.76</v>
+        <v>49803788.76</v>
       </c>
       <c r="D9" s="110">
-        <v>-376368859.06</v>
+        <v>376368859.06</v>
       </c>
       <c r="E9" s="108" t="s">
         <v>229</v>
@@ -6974,10 +6974,10 @@
       </c>
       <c r="B10" s="109"/>
       <c r="C10" s="110">
-        <v>-1054229776.45</v>
+        <v>1054229776.45</v>
       </c>
       <c r="D10" s="110">
-        <v>-223011006.14</v>
+        <v>223011006.14</v>
       </c>
       <c r="E10" s="108" t="s">
         <v>229</v>
@@ -6992,10 +6992,10 @@
       </c>
       <c r="B11" s="109"/>
       <c r="C11" s="110">
-        <v>-16005495207.39</v>
+        <v>16005495207.39</v>
       </c>
       <c r="D11" s="110">
-        <v>-15550391479.59</v>
+        <v>15550391479.59</v>
       </c>
       <c r="E11" s="110">
         <v>-1189942.98</v>
@@ -7010,10 +7010,10 @@
       </c>
       <c r="B12" s="109"/>
       <c r="C12" s="110">
-        <v>-2584148017.07</v>
+        <v>2584148017.07</v>
       </c>
       <c r="D12" s="110">
-        <v>-2629689263.41</v>
+        <v>2629689263.41</v>
       </c>
       <c r="E12" s="110">
         <v>-57610452.27</v>
@@ -7030,10 +7030,10 @@
         <v>240</v>
       </c>
       <c r="C13" s="110">
-        <v>-53022460678.06</v>
+        <v>53022460678.06</v>
       </c>
       <c r="D13" s="110">
-        <v>-46762922323.59</v>
+        <v>46762922323.59</v>
       </c>
       <c r="E13" s="110">
         <v>-186782587.66</v>
@@ -7048,10 +7048,10 @@
       </c>
       <c r="B14" s="109"/>
       <c r="C14" s="110">
-        <v>-115072837970.58</v>
+        <v>115072837970.58</v>
       </c>
       <c r="D14" s="110">
-        <v>-96275484942.16</v>
+        <v>96275484942.16</v>
       </c>
       <c r="E14" s="110">
         <v>-245582982.91</v>
@@ -7228,10 +7228,10 @@
       </c>
       <c r="B24" s="109"/>
       <c r="C24" s="110">
-        <v>-5642547025.94</v>
+        <v>5642547025.94</v>
       </c>
       <c r="D24" s="110">
-        <v>-4861856960.33</v>
+        <v>4861856960.33</v>
       </c>
       <c r="E24" s="108" t="s">
         <v>229</v>
@@ -7246,10 +7246,10 @@
       </c>
       <c r="B25" s="109"/>
       <c r="C25" s="110">
-        <v>-988450366.21</v>
+        <v>988450366.21</v>
       </c>
       <c r="D25" s="110">
-        <v>-1844011786.37</v>
+        <v>1844011786.37</v>
       </c>
       <c r="E25" s="108" t="s">
         <v>229</v>
@@ -7266,7 +7266,7 @@
         <v>248</v>
       </c>
       <c r="C26" s="110">
-        <v>-5737633.77</v>
+        <v>5737633.77</v>
       </c>
       <c r="D26" s="113" t="s">
         <v>229</v>
@@ -7286,10 +7286,10 @@
         <v>258</v>
       </c>
       <c r="C27" s="110">
-        <v>-42212354795.38</v>
+        <v>42212354795.38</v>
       </c>
       <c r="D27" s="110">
-        <v>-91887000000</v>
+        <v>91887000000</v>
       </c>
       <c r="E27" s="110">
         <v>-17143016446.65</v>
@@ -7304,10 +7304,10 @@
       </c>
       <c r="B28" s="109"/>
       <c r="C28" s="110">
-        <v>-48849089821.3</v>
+        <v>48849089821.3</v>
       </c>
       <c r="D28" s="110">
-        <v>-98592868746.7</v>
+        <v>98592868746.7</v>
       </c>
       <c r="E28" s="110">
         <v>-17143016446.65</v>
@@ -7442,10 +7442,10 @@
       </c>
       <c r="B36" s="109"/>
       <c r="C36" s="110">
-        <v>-6437359409.94</v>
+        <v>6437359409.94</v>
       </c>
       <c r="D36" s="110">
-        <v>-7471666265.19</v>
+        <v>7471666265.19</v>
       </c>
       <c r="E36" s="110">
         <v>-20000000</v>
@@ -7460,10 +7460,10 @@
       </c>
       <c r="B37" s="109"/>
       <c r="C37" s="110">
-        <v>-842836267.95</v>
+        <v>842836267.95</v>
       </c>
       <c r="D37" s="110">
-        <v>-1809644000.4</v>
+        <v>1809644000.4</v>
       </c>
       <c r="E37" s="110">
         <v>-418377666.33</v>
@@ -7480,10 +7480,10 @@
         <v>271</v>
       </c>
       <c r="C38" s="110">
-        <v>-74195355.9</v>
+        <v>74195355.9</v>
       </c>
       <c r="D38" s="110">
-        <v>-2570904301.72</v>
+        <v>2570904301.72</v>
       </c>
       <c r="E38" s="110">
         <v>-74195355.9</v>
@@ -7498,10 +7498,10 @@
       </c>
       <c r="B39" s="109"/>
       <c r="C39" s="110">
-        <v>-7354391033.79</v>
+        <v>7354391033.79</v>
       </c>
       <c r="D39" s="110">
-        <v>-11852214567.31</v>
+        <v>11852214567.31</v>
       </c>
       <c r="E39" s="110">
         <v>-512573022.23</v>
